--- a/Defect Logs.xlsx
+++ b/Defect Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Fitness-Tracker-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9C8A03E-A936-47AE-A7B4-2BFB47572169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CE7CF-D1B0-4A16-AD09-7BB92E413094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{884148B1-9905-4A04-935C-BDB0D3AE9041}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{884148B1-9905-4A04-935C-BDB0D3AE9041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>Defect ID</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Missing validations on numerics being &gt;0 in creating</t>
-  </si>
-  <si>
-    <t>Reported</t>
   </si>
 </sst>
 </file>
@@ -165,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +172,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,9 +197,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,7 +541,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,8 +782,8 @@
       <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>37</v>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -820,8 +808,8 @@
       <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>37</v>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -846,8 +834,8 @@
       <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -872,8 +860,8 @@
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>37</v>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -938,6 +926,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058EF0F6A95660A4A8A96CF00B1CF5037" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="197c58a32260732a99dc54c8250c0437">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9427ba3f-bf6b-4e36-982f-401b240078b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="499c5b1c6f59686070f4248eaa102d4c" ns3:_="">
     <xsd:import namespace="9427ba3f-bf6b-4e36-982f-401b240078b5"/>
@@ -1087,15 +1084,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1103,6 +1091,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4F1589-BD1F-40E4-9401-DDFEAF279961}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4DE7BBE-3DF9-4DD8-898B-C79BA11523F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1116,14 +1112,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4F1589-BD1F-40E4-9401-DDFEAF279961}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
